--- a/testdata/caldata.xlsx
+++ b/testdata/caldata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavan\Aug19Batch\seleniumproject\testdata\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Principle</t>
   </si>
@@ -101,12 +101,19 @@
   </si>
   <si>
     <t>Period(Years)</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +176,18 @@
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -230,11 +247,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +306,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,16 +667,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="23.15" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="14" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.53515625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.53515625" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.84375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.84375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.84375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.84375" style="9" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.53515625" style="9" customWidth="1" collapsed="1"/>
-    <col min="9" max="15" width="9.15234375" style="9" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.15234375" style="9" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="24.53515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="24.53515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="20.84375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="22.84375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="9" width="23.84375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="9" width="23.84375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="9" width="27.53515625" collapsed="true"/>
+    <col min="9" max="15" customWidth="true" style="9" width="9.15234375" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="9.15234375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.6">
@@ -683,7 +725,9 @@
       <c r="G2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" t="s" s="30">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
@@ -707,7 +751,9 @@
       <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" t="s" s="31">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A4" s="11" t="s">
@@ -731,7 +777,9 @@
       <c r="G4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" t="s" s="32">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A5" s="11" t="s">
@@ -755,7 +803,9 @@
       <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" t="s" s="33">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A6" s="11" t="s">
@@ -779,7 +829,9 @@
       <c r="G6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" t="s" s="34">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -812,12 +864,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.3046875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.84375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.15234375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.3046875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.53515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="14" width="11.3046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="14" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="16.84375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="14" width="18.15234375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="19.3046875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="14" width="8.53515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
